--- a/Tool3/研发意见.xlsx
+++ b/Tool3/研发意见.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23740" windowHeight="14540"/>
+    <workbookView windowHeight="16760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -184,79 +184,13 @@
     <t xml:space="preserve">部门领导对员工的意见反馈不及时，导致问题无法及时解决。 </t>
   </si>
   <si>
-    <r>
-      <t>晚上</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF172B4D"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF172B4D"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>点半就关闭了灯，有时候加班比较晚支持问题不方便。看下能否购买一个台灯</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>周六</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF172B4D"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF172B4D"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>楼运动时能不能开灯开空调</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>对接</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF172B4D"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SMT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF172B4D"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，我们目前只给软件测试，硬件测试我们不知道是否有提供，我们需要去了解这部分吗？</t>
-    </r>
+    <t>晚上11点半就关闭了灯，有时候加班比较晚支持问题不方便。看下能否购买一个台灯</t>
+  </si>
+  <si>
+    <t>周六4楼运动时能不能开灯开空调</t>
+  </si>
+  <si>
+    <t>对接SMT，我们目前只给软件测试，硬件测试我们不知道是否有提供，我们需要去了解这部分吗？</t>
   </si>
   <si>
     <t>收集统计的问题不确定是否有向上反馈或推动，感觉没有太大改变</t>
@@ -273,7 +207,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,43 +216,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="12"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF24292E"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF24292E"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF172B4D"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -800,137 +706,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -946,58 +852,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1528,7 +1419,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1561,7 +1452,7 @@
       <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="4" t="s">
@@ -1584,12 +1475,12 @@
       <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="15">
+      <c r="G2" s="14"/>
+      <c r="H2" s="12">
         <v>5</v>
       </c>
       <c r="I2" s="4" t="str">
@@ -1608,17 +1499,17 @@
       <c r="D3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="12">
         <v>4</v>
       </c>
-      <c r="I3" s="15"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" ht="18" spans="1:9">
       <c r="A4" s="5">
@@ -1631,13 +1522,13 @@
       <c r="D4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="20">
+      <c r="E4" s="12"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="10">
         <v>3</v>
       </c>
-      <c r="I4" s="20"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" ht="18" spans="1:9">
       <c r="A5" s="3">
@@ -1649,18 +1540,18 @@
       <c r="C5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="20"/>
+      <c r="E5" s="10"/>
       <c r="F5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="20">
+      <c r="G5" s="17"/>
+      <c r="H5" s="10">
         <v>1</v>
       </c>
-      <c r="I5" s="20"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" ht="18" spans="1:9">
       <c r="A6" s="3">
@@ -1675,15 +1566,15 @@
       <c r="D6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="10"/>
       <c r="F6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="20">
+      <c r="G6" s="17"/>
+      <c r="H6" s="10">
         <v>1</v>
       </c>
-      <c r="I6" s="20"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" ht="18" spans="1:9">
       <c r="A7" s="3">
@@ -1695,18 +1586,18 @@
       <c r="C7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="20"/>
+      <c r="E7" s="10"/>
       <c r="F7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="20">
+      <c r="G7" s="17"/>
+      <c r="H7" s="10">
         <v>1</v>
       </c>
-      <c r="I7" s="20"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" ht="17.6" spans="1:9">
       <c r="A8" s="3">
@@ -1718,256 +1609,256 @@
       <c r="C8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="20"/>
+      <c r="E8" s="10"/>
       <c r="F8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="20">
+      <c r="G8" s="17"/>
+      <c r="H8" s="10">
         <v>1</v>
       </c>
-      <c r="I8" s="20"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" ht="17.6" spans="1:9">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="11">
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="10">
         <v>1</v>
       </c>
-      <c r="I9" s="11"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" ht="17.6" spans="1:9">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="11">
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="10">
         <v>1</v>
       </c>
-      <c r="I10" s="11"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" ht="17.6" spans="1:9">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="11">
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="10">
         <v>1</v>
       </c>
-      <c r="I11" s="11"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" ht="17.6" spans="1:9">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="11">
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="10">
         <v>1</v>
       </c>
-      <c r="I12" s="11"/>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" ht="17.6" spans="1:9">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="11">
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="10">
         <v>1</v>
       </c>
-      <c r="I13" s="11"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" ht="17.6" spans="1:9">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="11">
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="10">
         <v>1</v>
       </c>
-      <c r="I14" s="11"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" ht="17.6" spans="1:9">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="11">
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="10">
         <v>1</v>
       </c>
-      <c r="I15" s="11"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" ht="17.6" spans="1:9">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12" t="s">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="11">
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="10">
         <v>1</v>
       </c>
-      <c r="I16" s="11"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" ht="17.6" spans="1:9">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="11">
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="10">
         <v>1</v>
       </c>
-      <c r="I17" s="11"/>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" ht="17.6" spans="1:9">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="11">
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="10">
         <v>1</v>
       </c>
-      <c r="I18" s="11"/>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" ht="17.6" spans="1:9">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="13" t="s">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="11">
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="10">
         <v>1</v>
       </c>
-      <c r="I19" s="11"/>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" ht="17.6" spans="1:9">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="13" t="s">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="11">
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="10">
         <v>1</v>
       </c>
-      <c r="I20" s="11"/>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" ht="17.6" spans="1:9">
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="13" t="s">
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="11">
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="10">
         <v>2</v>
       </c>
-      <c r="I21" s="11"/>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" ht="17.6" spans="1:9">
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11" t="s">
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="11">
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="10">
         <v>3</v>
       </c>
-      <c r="I22" s="11"/>
+      <c r="I22" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
